--- a/src/main/resources/xlsx/pcs/pr-4.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-4.xlsx
@@ -37,11 +37,6 @@
   </si>
   <si>
     <t>应选代表情况</t>
-  </si>
-  <si>
-    <t>“一上”
-推荐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>推荐结果</t>
@@ -115,8 +110,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>分党委名称：party</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本单位共有党员 mc 名，其中：在职教职工党员 tc 名，学生党员 sc 名，离退休党员 rc 名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“stage”
+推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">中国共产党北京师范大学第十三次党员代表大会代表候选人初步人选统计表
+      <t xml:space="preserve">中国共产党北京师范大学第十三次党员代表大会代表候选人title人选统计表
 </t>
     </r>
     <r>
@@ -129,14 +137,6 @@
       </rPr>
       <t>（“stage”阶段，deadline报党委组织部）</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分党委名称：party</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本单位共有党员 mc 名，其中：在职教职工党员 tc 名，学生党员 sc 名，离退休党员 rc 名。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -726,7 +726,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A3" sqref="A3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -738,7 +738,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
@@ -752,7 +752,7 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -760,7 +760,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -768,7 +768,7 @@
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
@@ -795,7 +795,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -806,7 +806,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>2</v>
@@ -818,10 +818,10 @@
         <v>4</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -845,10 +845,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -862,57 +862,57 @@
       <c r="A8" s="7"/>
       <c r="B8" s="6"/>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="6"/>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
